--- a/data/schema.xlsx
+++ b/data/schema.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.2.11\ortak\650.PLANLAMA\651.HUSNU\00.PLANLAMA\2024.11.06 - Yeni Uzun Kod Sistemi\ChatGPT\v7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.2.11\ortak\650.PLANLAMA\651.HUSNU\00.PLANLAMA\2024.11.06 - Yeni Uzun Kod Sistemi\ChatGPT\v9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7C6B9C2-AC24-47D3-B006-D8AAC4AF6D13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98A09E77-F86D-4299-8BB4-258C6F10EEA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38510" yWindow="-7430" windowWidth="38620" windowHeight="21100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="300">
   <si>
     <t>Kategori1</t>
   </si>
@@ -566,9 +566,6 @@
     <t>Listede Olmayan Rulo Genişliği (belirtiniz...)</t>
   </si>
   <si>
-    <t>Listede Olmayan Rulo Dış Çapı (Başında D harfi olacak şekilde belirtiniz...)</t>
-  </si>
-  <si>
     <t>Discap_harici_opts</t>
   </si>
   <si>
@@ -927,6 +924,18 @@
   </si>
   <si>
     <t>Daha Sonra Belirtilecek</t>
+  </si>
+  <si>
+    <t>PrereqFieldKey</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Listede Olmayan Rulo Dış Çapı (belirtiniz...)</t>
+  </si>
+  <si>
+    <t>number</t>
   </si>
 </sst>
 </file>
@@ -988,9 +997,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -2067,7 +2079,7 @@
         <v>94</v>
       </c>
       <c r="E14" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F14">
         <v>13</v>
@@ -2674,10 +2686,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2687,10 +2699,11 @@
     <col min="3" max="3" width="67.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="13.28515625" customWidth="1"/>
     <col min="6" max="6" width="30.7109375" customWidth="1"/>
-    <col min="7" max="13" width="13.28515625" customWidth="1"/>
+    <col min="7" max="12" width="13.28515625" customWidth="1"/>
+    <col min="13" max="13" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -2727,8 +2740,11 @@
       <c r="L1" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M1" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>79</v>
       </c>
@@ -2748,7 +2764,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>79</v>
       </c>
@@ -2767,8 +2783,11 @@
       <c r="F3" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>87</v>
       </c>
@@ -2788,7 +2807,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>86</v>
       </c>
@@ -2808,7 +2827,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>86</v>
       </c>
@@ -2827,8 +2846,11 @@
       <c r="F6" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>81</v>
       </c>
@@ -2848,7 +2870,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>88</v>
       </c>
@@ -2868,7 +2890,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>88</v>
       </c>
@@ -2887,8 +2909,11 @@
       <c r="F9" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M9" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>88</v>
       </c>
@@ -2896,7 +2921,7 @@
         <v>161</v>
       </c>
       <c r="C10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D10" t="s">
         <v>153</v>
@@ -2908,7 +2933,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>89</v>
       </c>
@@ -2928,7 +2953,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>89</v>
       </c>
@@ -2936,19 +2961,25 @@
         <v>173</v>
       </c>
       <c r="C12" t="s">
-        <v>176</v>
+        <v>298</v>
       </c>
       <c r="D12" t="s">
-        <v>153</v>
+        <v>299</v>
       </c>
       <c r="E12" t="b">
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+      <c r="K12" t="s">
+        <v>297</v>
+      </c>
+      <c r="M12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>90</v>
       </c>
@@ -2965,18 +2996,18 @@
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>90</v>
       </c>
       <c r="B14" t="s">
+        <v>189</v>
+      </c>
+      <c r="C14" t="s">
         <v>190</v>
-      </c>
-      <c r="C14" t="s">
-        <v>191</v>
       </c>
       <c r="D14" t="s">
         <v>120</v>
@@ -2985,18 +3016,21 @@
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+      <c r="M14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>90</v>
       </c>
       <c r="B15" t="s">
+        <v>191</v>
+      </c>
+      <c r="C15" t="s">
         <v>192</v>
-      </c>
-      <c r="C15" t="s">
-        <v>193</v>
       </c>
       <c r="D15" t="s">
         <v>120</v>
@@ -3005,10 +3039,13 @@
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+      <c r="M15" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>82</v>
       </c>
@@ -3016,19 +3053,19 @@
         <v>82</v>
       </c>
       <c r="C16" t="s">
+        <v>215</v>
+      </c>
+      <c r="D16" t="s">
+        <v>229</v>
+      </c>
+      <c r="E16" t="b">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
         <v>216</v>
       </c>
-      <c r="D16" t="s">
-        <v>230</v>
-      </c>
-      <c r="E16" t="b">
-        <v>1</v>
-      </c>
-      <c r="F16" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>91</v>
       </c>
@@ -3045,10 +3082,10 @@
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>83</v>
       </c>
@@ -3056,7 +3093,7 @@
         <v>83</v>
       </c>
       <c r="C18" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D18" t="s">
         <v>120</v>
@@ -3065,10 +3102,10 @@
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>92</v>
       </c>
@@ -3085,18 +3122,18 @@
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>92</v>
       </c>
       <c r="B20" t="s">
+        <v>262</v>
+      </c>
+      <c r="C20" t="s">
         <v>263</v>
-      </c>
-      <c r="C20" t="s">
-        <v>264</v>
       </c>
       <c r="D20" t="s">
         <v>120</v>
@@ -3105,10 +3142,13 @@
         <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+      <c r="M20" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>93</v>
       </c>
@@ -3125,10 +3165,10 @@
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>94</v>
       </c>
@@ -3136,7 +3176,7 @@
         <v>94</v>
       </c>
       <c r="C22" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D22" t="s">
         <v>120</v>
@@ -3145,10 +3185,10 @@
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>95</v>
       </c>
@@ -3165,7 +3205,7 @@
         <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -3178,8 +3218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3527,10 +3567,10 @@
         <v>172</v>
       </c>
       <c r="B26" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C26" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -3541,10 +3581,10 @@
         <v>172</v>
       </c>
       <c r="B27" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C27" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D27">
         <v>2</v>
@@ -3555,10 +3595,10 @@
         <v>172</v>
       </c>
       <c r="B28" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C28" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D28">
         <v>3</v>
@@ -3569,10 +3609,10 @@
         <v>172</v>
       </c>
       <c r="B29" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D29">
         <v>4</v>
@@ -3583,10 +3623,10 @@
         <v>172</v>
       </c>
       <c r="B30" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C30" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D30">
         <v>5</v>
@@ -3608,7 +3648,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -3616,13 +3656,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B33" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C33" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -3630,13 +3670,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B34" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C34" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D34">
         <v>2</v>
@@ -3644,13 +3684,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B35" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C35" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D35">
         <v>3</v>
@@ -3658,13 +3698,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B36" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C36" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D36">
         <v>4</v>
@@ -3672,13 +3712,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B37" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C37" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D37">
         <v>5</v>
@@ -3686,13 +3726,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B38" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C38" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D38">
         <v>6</v>
@@ -3700,13 +3740,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B39" t="s">
+        <v>207</v>
+      </c>
+      <c r="C39" t="s">
         <v>208</v>
-      </c>
-      <c r="C39" t="s">
-        <v>209</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -3714,13 +3754,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B40" t="s">
+        <v>209</v>
+      </c>
+      <c r="C40" t="s">
         <v>210</v>
-      </c>
-      <c r="C40" t="s">
-        <v>211</v>
       </c>
       <c r="D40">
         <v>2</v>
@@ -3728,13 +3768,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B41" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C41" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -3742,13 +3782,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B42" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C42" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D42">
         <v>2</v>
@@ -3756,13 +3796,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B43" t="s">
         <v>129</v>
       </c>
       <c r="C43" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -3770,13 +3810,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B44" t="s">
+        <v>225</v>
+      </c>
+      <c r="C44" t="s">
         <v>226</v>
-      </c>
-      <c r="C44" t="s">
-        <v>227</v>
       </c>
       <c r="D44">
         <v>2</v>
@@ -3784,13 +3824,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>216</v>
+      </c>
+      <c r="B45" t="s">
         <v>217</v>
       </c>
-      <c r="B45" t="s">
-        <v>218</v>
-      </c>
       <c r="C45" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D45">
         <v>3</v>
@@ -3798,13 +3838,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B46" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C46" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D46">
         <v>4</v>
@@ -3812,13 +3852,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B47" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C47" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D47">
         <v>5</v>
@@ -3826,13 +3866,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B48" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C48" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D48">
         <v>6</v>
@@ -3840,13 +3880,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B49" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C49" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D49">
         <v>7</v>
@@ -3854,13 +3894,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B50" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C50" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D50">
         <v>8</v>
@@ -3868,13 +3908,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B51" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C51" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D51">
         <v>9</v>
@@ -3882,13 +3922,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B52" t="s">
         <v>128</v>
       </c>
       <c r="C52" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D52">
         <v>1</v>
@@ -3896,13 +3936,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>235</v>
+      </c>
+      <c r="B53" t="s">
         <v>236</v>
       </c>
-      <c r="B53" t="s">
-        <v>237</v>
-      </c>
       <c r="C53" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D53">
         <v>2</v>
@@ -3910,13 +3950,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B54" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C54" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D54">
         <v>3</v>
@@ -3924,13 +3964,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B55" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C55" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D55">
         <v>4</v>
@@ -3938,13 +3978,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B56" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C56" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D56">
         <v>5</v>
@@ -3952,13 +3992,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B57" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C57" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D57">
         <v>6</v>
@@ -3966,13 +4006,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B58" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C58" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D58">
         <v>7</v>
@@ -3980,13 +4020,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B59" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C59" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D59">
         <v>8</v>
@@ -3994,13 +4034,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B60" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C60" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D60">
         <v>9</v>
@@ -4008,13 +4048,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B61" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C61" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D61">
         <v>10</v>
@@ -4022,13 +4062,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B62" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C62" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D62">
         <v>11</v>
@@ -4036,13 +4076,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
+        <v>258</v>
+      </c>
+      <c r="B63" t="s">
         <v>259</v>
       </c>
-      <c r="B63" t="s">
+      <c r="C63" t="s">
         <v>260</v>
-      </c>
-      <c r="C63" t="s">
-        <v>261</v>
       </c>
       <c r="D63">
         <v>1</v>
@@ -4050,13 +4090,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B64" t="s">
         <v>128</v>
       </c>
       <c r="C64" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D64">
         <v>1</v>
@@ -4064,13 +4104,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B65" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C65" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D65">
         <v>2</v>
@@ -4078,13 +4118,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B66">
         <v>300</v>
       </c>
       <c r="C66" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D66">
         <v>1</v>
@@ -4092,13 +4132,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B67">
         <v>500</v>
       </c>
       <c r="C67" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D67">
         <v>2</v>
@@ -4106,13 +4146,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B68" t="s">
         <v>128</v>
       </c>
       <c r="C68" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D68">
         <v>1</v>
@@ -4120,13 +4160,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
+        <v>270</v>
+      </c>
+      <c r="B69" t="s">
         <v>271</v>
       </c>
-      <c r="B69" t="s">
-        <v>272</v>
-      </c>
       <c r="C69" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D69">
         <v>2</v>
@@ -4134,13 +4174,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B70" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C70" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D70">
         <v>3</v>
@@ -4148,13 +4188,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
+        <v>276</v>
+      </c>
+      <c r="B71" t="s">
         <v>277</v>
       </c>
-      <c r="B71" t="s">
-        <v>278</v>
-      </c>
       <c r="C71" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D71">
         <v>1</v>
@@ -4162,13 +4202,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B72" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C72" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D72">
         <v>2</v>
@@ -4176,13 +4216,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B73" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C73" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D73">
         <v>3</v>
@@ -4190,13 +4230,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B74" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C74" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D74">
         <v>4</v>
@@ -4204,13 +4244,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B75" t="s">
         <v>129</v>
       </c>
       <c r="C75" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D75">
         <v>5</v>
@@ -4218,13 +4258,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
+        <v>287</v>
+      </c>
+      <c r="B76" t="s">
         <v>288</v>
       </c>
-      <c r="B76" t="s">
-        <v>289</v>
-      </c>
       <c r="C76" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D76">
         <v>1</v>
@@ -4232,13 +4272,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B77" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C77" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D77">
         <v>2</v>
@@ -4246,13 +4286,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B78" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C78" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D78">
         <v>3</v>
@@ -4260,13 +4300,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B79" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C79" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D79">
         <v>4</v>
